--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H2">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N2">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q2">
-        <v>43.53344414419079</v>
+        <v>191.7533984687962</v>
       </c>
       <c r="R2">
-        <v>43.53344414419079</v>
+        <v>1725.780586219166</v>
       </c>
       <c r="S2">
-        <v>0.006406898139867361</v>
+        <v>0.01392703817576249</v>
       </c>
       <c r="T2">
-        <v>0.006406898139867361</v>
+        <v>0.01392703817576249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H3">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N3">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q3">
-        <v>35.95044260658302</v>
+        <v>54.06651754358889</v>
       </c>
       <c r="R3">
-        <v>35.95044260658302</v>
+        <v>486.5986578923</v>
       </c>
       <c r="S3">
-        <v>0.005290893665583339</v>
+        <v>0.003926848023935427</v>
       </c>
       <c r="T3">
-        <v>0.005290893665583339</v>
+        <v>0.003926848023935428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H4">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N4">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q4">
-        <v>3.912241819232645</v>
+        <v>6.311179040768557</v>
       </c>
       <c r="R4">
-        <v>3.912241819232645</v>
+        <v>56.800611366917</v>
       </c>
       <c r="S4">
-        <v>0.0005757719226471475</v>
+        <v>0.0004583805665856764</v>
       </c>
       <c r="T4">
-        <v>0.0005757719226471475</v>
+        <v>0.0004583805665856764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H5">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N5">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q5">
-        <v>6.917486786344307</v>
+        <v>11.38868428493911</v>
       </c>
       <c r="R5">
-        <v>6.917486786344307</v>
+        <v>102.498158564452</v>
       </c>
       <c r="S5">
-        <v>0.001018059427533269</v>
+        <v>0.0008271594770919476</v>
       </c>
       <c r="T5">
-        <v>0.001018059427533269</v>
+        <v>0.0008271594770919477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N6">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q6">
-        <v>2316.284772876104</v>
+        <v>6822.080978944281</v>
       </c>
       <c r="R6">
-        <v>2316.284772876104</v>
+        <v>61398.72881049853</v>
       </c>
       <c r="S6">
-        <v>0.3408919485807171</v>
+        <v>0.4954873446342659</v>
       </c>
       <c r="T6">
-        <v>0.3408919485807171</v>
+        <v>0.4954873446342661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N7">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q7">
-        <v>1912.815868920781</v>
+        <v>1923.544322432944</v>
       </c>
       <c r="R7">
-        <v>1912.815868920781</v>
+        <v>17311.8989018965</v>
       </c>
       <c r="S7">
-        <v>0.2815126777450869</v>
+        <v>0.1397069122383987</v>
       </c>
       <c r="T7">
-        <v>0.2815126777450869</v>
+        <v>0.1397069122383988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N8">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q8">
-        <v>208.1587232952007</v>
+        <v>224.5351312286928</v>
       </c>
       <c r="R8">
-        <v>208.1587232952007</v>
+        <v>2020.816181058235</v>
       </c>
       <c r="S8">
-        <v>0.03063510740523735</v>
+        <v>0.01630797351907541</v>
       </c>
       <c r="T8">
-        <v>0.03063510740523735</v>
+        <v>0.01630797351907542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N9">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O9">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P9">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q9">
-        <v>368.058848197498</v>
+        <v>405.1793973712956</v>
       </c>
       <c r="R9">
-        <v>368.058848197498</v>
+        <v>3646.61457634166</v>
       </c>
       <c r="S9">
-        <v>0.05416790691009331</v>
+        <v>0.02942815606024705</v>
       </c>
       <c r="T9">
-        <v>0.05416790691009331</v>
+        <v>0.02942815606024706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H10">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N10">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O10">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P10">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q10">
-        <v>21.79840331971</v>
+        <v>74.55051513799044</v>
       </c>
       <c r="R10">
-        <v>21.79840331971</v>
+        <v>670.954636241914</v>
       </c>
       <c r="S10">
-        <v>0.003208111658212668</v>
+        <v>0.005414599577584583</v>
       </c>
       <c r="T10">
-        <v>0.003208111658212668</v>
+        <v>0.005414599577584585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H11">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N11">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P11">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q11">
-        <v>18.00138405922466</v>
+        <v>21.02015800907778</v>
       </c>
       <c r="R11">
-        <v>18.00138405922466</v>
+        <v>189.1814220817</v>
       </c>
       <c r="S11">
-        <v>0.002649297254361042</v>
+        <v>0.001526692853376596</v>
       </c>
       <c r="T11">
-        <v>0.002649297254361042</v>
+        <v>0.001526692853376596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H12">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N12">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O12">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P12">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q12">
-        <v>1.958968024156417</v>
+        <v>2.453680885838111</v>
       </c>
       <c r="R12">
-        <v>1.958968024156417</v>
+        <v>22.083127972543</v>
       </c>
       <c r="S12">
-        <v>0.0002883049764786923</v>
+        <v>0.0001782106999984511</v>
       </c>
       <c r="T12">
-        <v>0.0002883049764786923</v>
+        <v>0.0001782106999984512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H13">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N13">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O13">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P13">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q13">
-        <v>3.463777559800988</v>
+        <v>4.427730027034222</v>
       </c>
       <c r="R13">
-        <v>3.463777559800988</v>
+        <v>39.849570243308</v>
       </c>
       <c r="S13">
-        <v>0.0005097706014552636</v>
+        <v>0.0003215857742855607</v>
       </c>
       <c r="T13">
-        <v>0.0005097706014552636</v>
+        <v>0.0003215857742855609</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H14">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N14">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O14">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P14">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q14">
-        <v>893.6375479778395</v>
+        <v>2930.379308134682</v>
       </c>
       <c r="R14">
-        <v>893.6375479778395</v>
+        <v>26373.41377321214</v>
       </c>
       <c r="S14">
-        <v>0.1315183040627597</v>
+        <v>0.2128332786784866</v>
       </c>
       <c r="T14">
-        <v>0.1315183040627597</v>
+        <v>0.2128332786784867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H15">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N15">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P15">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q15">
-        <v>737.9766524618514</v>
+        <v>826.2456130518889</v>
       </c>
       <c r="R15">
-        <v>737.9766524618514</v>
+        <v>7436.210517467</v>
       </c>
       <c r="S15">
-        <v>0.1086093998504438</v>
+        <v>0.06001017081010161</v>
       </c>
       <c r="T15">
-        <v>0.1086093998504438</v>
+        <v>0.06001017081010163</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H16">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N16">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O16">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P16">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q16">
-        <v>80.30897290955453</v>
+        <v>96.44756556432556</v>
       </c>
       <c r="R16">
-        <v>80.30897290955453</v>
+        <v>868.0280900789299</v>
       </c>
       <c r="S16">
-        <v>0.01181922127375588</v>
+        <v>0.007004981076214405</v>
       </c>
       <c r="T16">
-        <v>0.01181922127375588</v>
+        <v>0.007004981076214407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H17">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N17">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O17">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P17">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q17">
-        <v>141.9994684877865</v>
+        <v>174.0421032532311</v>
       </c>
       <c r="R17">
-        <v>141.9994684877865</v>
+        <v>1566.37892927908</v>
       </c>
       <c r="S17">
-        <v>0.02089832652576733</v>
+        <v>0.01264066783458956</v>
       </c>
       <c r="T17">
-        <v>0.02089832652576733</v>
+        <v>0.01264066783458956</v>
       </c>
     </row>
   </sheetData>
